--- a/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
+++ b/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125B4018-2B44-4C31-8365-C08C96FBE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5592DE3-88B1-4601-8D67-F88A0730A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="240" windowWidth="38370" windowHeight="20505" xr2:uid="{B139BBD8-3803-4571-98DF-3BB783EE896A}"/>
+    <workbookView xWindow="35790" yWindow="2025" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{B139BBD8-3803-4571-98DF-3BB783EE896A}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
     <sheet name="One-Time Backup" sheetId="3" r:id="rId2"/>
     <sheet name="Continuous Tiering" sheetId="4" r:id="rId3"/>
     <sheet name="Cool vs Archive" sheetId="1" r:id="rId4"/>
+    <sheet name="Packing Saving" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="131">
   <si>
     <t>About Azure Archive Storage Cost Estimation Examples</t>
   </si>
@@ -928,20 +932,225 @@
   <si>
     <t>Data Rehydration Cost ($) = H * I + J * K /10,000</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cost saving on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with packing</t>
+    </r>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>No Packing</t>
+  </si>
+  <si>
+    <t>Packing 10MB</t>
+  </si>
+  <si>
+    <t>Packing 100MB</t>
+  </si>
+  <si>
+    <t>Packing 1GB</t>
+  </si>
+  <si>
+    <t>Packing Size (MB)</t>
+  </si>
+  <si>
+    <t>Write GB</t>
+  </si>
+  <si>
+    <t>Read GB</t>
+  </si>
+  <si>
+    <t>File count</t>
+  </si>
+  <si>
+    <t>Single file size (MB)</t>
+  </si>
+  <si>
+    <t>Total File Size (MB)</t>
+  </si>
+  <si>
+    <t>Write Cost</t>
+  </si>
+  <si>
+    <t>Read %</t>
+  </si>
+  <si>
+    <t>Read Cost -TX</t>
+  </si>
+  <si>
+    <t>Read Cost - GB</t>
+  </si>
+  <si>
+    <t>Read Cost ($) - Best</t>
+  </si>
+  <si>
+    <t>Read Cost ($) - Worst</t>
+  </si>
+  <si>
+    <t>Packing Read</t>
+  </si>
+  <si>
+    <t>Hot Read Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Packing Cost ($)</t>
+  </si>
+  <si>
+    <t>E2E Cost (R/W/P)</t>
+  </si>
+  <si>
+    <t>Cost reduction - Best</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cost saving on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with packing</t>
+    </r>
+  </si>
+  <si>
+    <t>Write TX</t>
+  </si>
+  <si>
+    <t>Read TX</t>
+  </si>
+  <si>
+    <t>Read Cost</t>
+  </si>
+  <si>
+    <t>Cost Saving Estimation Scenario: Packing files for tiering</t>
+  </si>
+  <si>
+    <t>Write TX Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Write GB Price</t>
+  </si>
+  <si>
+    <t>Read TX Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Read GB Price ($/GB)</t>
+  </si>
+  <si>
+    <t>All packed files hit on read</t>
+  </si>
+  <si>
+    <t>min % of packed files hit on read</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This worksheet helps you estimate how much you save more when you pack small files into large ones and store in Archive tier and Cool tier. You can see significant saving on reading files after packing and tiering down. In the worst case, you need to read each packed files in order to read required unpackd files. In the best case, you may only need to read minimum packed files in order to read required unpacked files.
+To estimate the cost for your scenario, you need to update some of the parameters below: 
+1. Update the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Write TX Price, Read TX Price, Read GB Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per region per access stier. You can find latest price rates in: https://azure.microsoft.com/en-us/pricing/details/storage/blobs/.
+2. Update the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">File count, Single file size (MB), Read % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters per your file size distribution and read requirements.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00000_);[Red]\(&quot;$&quot;#,##0.00000\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +1274,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,8 +1337,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1207,13 +1465,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1373,14 +1650,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,7 +2379,1733 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Packing Impact on Archive</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Packing Saving'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Packing Saving'!$C$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-593C-4003-880B-E13964C7FBA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Packing Saving'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read Cost ($) - Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Packing Saving'!$C$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15292.96875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042.96875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367.96875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.29296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-593C-4003-880B-E13964C7FBA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="826931216"/>
+        <c:axId val="826921232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="826931216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826921232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="826921232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826931216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Packing Impact on Cool</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write TX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read TX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single file size (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Packing Saving'!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2E Cost (R/W/P)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Packing Saving'!$C$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1176.484375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.984375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.63437500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.9873046875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Packing!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hot Read Price ($/10K)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Packing Saving'!$C$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Packing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Packing 10MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Packing 100MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packing 1GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Packing!$B$40:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-79B2-4914-A9AF-2EBC3D2409A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="452585951"/>
+        <c:axId val="452597183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452585951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452597183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452597183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452585951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2689,6 +4715,943 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2730,6 +5693,247 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1622AAA-EBCD-4811-A73E-EA9DA39AC204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336549</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB0EB71-BF09-419E-AB07-36DEBAF98687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PriceEsitmate"/>
+      <sheetName val="Generic"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Dynamics"/>
+      <sheetName val="DynamicsAccountsLogsEnabled"/>
+      <sheetName val="Adobe"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="AdobeSubscriptions"/>
+      <sheetName val="AdobeList"/>
+      <sheetName val="Packing"/>
+      <sheetName val="AppendBlob"/>
+      <sheetName val="DirectArchiveVsLCM"/>
+      <sheetName val="SavingOpportunit"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Write TX</v>
+          </cell>
+          <cell r="B27">
+            <v>0.1</v>
+          </cell>
+          <cell r="C27">
+            <v>0.1</v>
+          </cell>
+          <cell r="D27">
+            <v>0.1</v>
+          </cell>
+          <cell r="E27">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Write GB</v>
+          </cell>
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Read TX</v>
+          </cell>
+          <cell r="B29">
+            <v>0.01</v>
+          </cell>
+          <cell r="C29">
+            <v>0.01</v>
+          </cell>
+          <cell r="D29">
+            <v>0.01</v>
+          </cell>
+          <cell r="E29">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Read GB</v>
+          </cell>
+          <cell r="B30">
+            <v>0.01</v>
+          </cell>
+          <cell r="C30">
+            <v>0.01</v>
+          </cell>
+          <cell r="D30">
+            <v>0.01</v>
+          </cell>
+          <cell r="E30">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Single file size (MB)</v>
+          </cell>
+          <cell r="B32">
+            <v>0.5</v>
+          </cell>
+          <cell r="C32">
+            <v>0.5</v>
+          </cell>
+          <cell r="D32">
+            <v>0.5</v>
+          </cell>
+          <cell r="E32">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Read %</v>
+          </cell>
+          <cell r="B35">
+            <v>0.3</v>
+          </cell>
+          <cell r="C35">
+            <v>0.3</v>
+          </cell>
+          <cell r="D35">
+            <v>0.3</v>
+          </cell>
+          <cell r="E35">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Hot Read Price ($/10K)</v>
+          </cell>
+          <cell r="B40">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="C40">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="D40">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="E40">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3031,8 +6235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945069A-E784-41BF-BE7C-D73E95B5540D}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3092,7 +6296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1DB988-1C38-4E4D-8CF3-6880374B2680}">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3113,24 +6317,24 @@
       </c>
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" ht="118.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -4517,8 +7721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047D0281-6938-44E0-ADE5-9077A7B80996}">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,24 +7743,24 @@
       </c>
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -5954,8 +9158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA31A6-642C-4B4E-B1C6-775064368687}">
   <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R2"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5990,25 +9194,25 @@
       </c>
     </row>
     <row r="2" spans="2:32" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:32" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
@@ -7000,6 +10204,830 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FFEA36-F962-431B-80C2-9B4D519A6D4C}">
+  <dimension ref="B1:Q55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B1" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+    </row>
+    <row r="3" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" s="77" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <f>1024</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="E11" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="F11" s="18">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="34">
+        <f>C11*C12</f>
+        <v>50000000</v>
+      </c>
+      <c r="D13" s="34">
+        <f>D11*D12</f>
+        <v>50000000</v>
+      </c>
+      <c r="E13" s="34">
+        <f>E11*E12</f>
+        <v>50000000</v>
+      </c>
+      <c r="F13" s="34">
+        <f>F11*F12</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="84">
+        <f>C11/10000*C7</f>
+        <v>1000</v>
+      </c>
+      <c r="D14" s="85">
+        <f>D13/D6/10000*D7</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="85">
+        <f>E13/E6/10000*E7</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="85">
+        <f>F13/F6/10000*F7</f>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="8">
+        <f>$C$15</f>
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ref="E15:F15" si="0">$C$15</f>
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="79">
+        <f>C11/10000*C9*C15</f>
+        <v>15000</v>
+      </c>
+      <c r="D16" s="79">
+        <f>D13/D6/10000*D9*D15</f>
+        <v>750</v>
+      </c>
+      <c r="E16" s="79">
+        <f t="shared" ref="E16:F16" si="1">E13/E6/10000*E9*E15</f>
+        <v>75</v>
+      </c>
+      <c r="F16" s="79">
+        <f t="shared" si="1"/>
+        <v>7.32421875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="79">
+        <f>C13/1024*C10*C15</f>
+        <v>292.96875</v>
+      </c>
+      <c r="D17" s="79">
+        <f>D13/1024*D10*D15</f>
+        <v>292.96875</v>
+      </c>
+      <c r="E17" s="79">
+        <f t="shared" ref="E17:F17" si="2">E13/1024*E10*E15</f>
+        <v>292.96875</v>
+      </c>
+      <c r="F17" s="79">
+        <f t="shared" si="2"/>
+        <v>292.96875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="87">
+        <f>(C11/10000*C9+C13/1024*C10)*C15</f>
+        <v>15292.96875</v>
+      </c>
+      <c r="D18" s="87">
+        <f>(D13/D6/10000*D9+D13/1024*D10)*D15</f>
+        <v>1042.96875</v>
+      </c>
+      <c r="E18" s="87">
+        <f>(E13/E6/10000*E9+E13/1024*E10)*E15</f>
+        <v>367.96875</v>
+      </c>
+      <c r="F18" s="87">
+        <f>(F13/F6/10000*F9+F13/1024*F10)*F15</f>
+        <v>300.29296875</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="83">
+        <f>(C11/10000*C9+C13/1024*C10)*C15</f>
+        <v>15292.96875</v>
+      </c>
+      <c r="D19" s="83">
+        <f>D13/D6/10000*D9*D15+D13/1024*D10</f>
+        <v>1726.5625</v>
+      </c>
+      <c r="E19" s="83">
+        <f>E13/E6/10000*E9*E15+E13/1024*E10</f>
+        <v>1051.5625</v>
+      </c>
+      <c r="F19" s="83">
+        <f>F13/F6/10000*F9*F15+F13/1024*F10</f>
+        <v>983.88671875</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="34">
+        <f>C11</f>
+        <v>100000000</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" ref="D20:F20" si="3">D11</f>
+        <v>100000000</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" si="3"/>
+        <v>100000000</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="3"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:F22" si="4">D20/10000*D21</f>
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="89">
+        <f>C14+C18+C22</f>
+        <v>16292.96875</v>
+      </c>
+      <c r="D23" s="89">
+        <f t="shared" ref="D23:F23" si="5">D14+D18+D22</f>
+        <v>1132.96875</v>
+      </c>
+      <c r="E23" s="89">
+        <f t="shared" si="5"/>
+        <v>412.96875</v>
+      </c>
+      <c r="F23" s="89">
+        <f t="shared" si="5"/>
+        <v>340.78125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="92">
+        <f>1-D23/$C23</f>
+        <v>0.93046271877247666</v>
+      </c>
+      <c r="E24" s="92">
+        <f>1-E23/$C23</f>
+        <v>0.97465356029729078</v>
+      </c>
+      <c r="F24" s="92">
+        <f>1-F23/$C23</f>
+        <v>0.97908415248141933</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" s="77" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <f>1024</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="D34" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="E34" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="F34" s="18">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="34">
+        <f>C34*C35</f>
+        <v>50000000</v>
+      </c>
+      <c r="D36" s="34">
+        <f>D34*D35</f>
+        <v>50000000</v>
+      </c>
+      <c r="E36" s="34">
+        <f>E34*E35</f>
+        <v>50000000</v>
+      </c>
+      <c r="F36" s="34">
+        <f>F34*F35</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="84">
+        <f>C34/10000*C30</f>
+        <v>1000</v>
+      </c>
+      <c r="D37" s="85">
+        <f>D36/D29/10000*D30</f>
+        <v>50</v>
+      </c>
+      <c r="E37" s="85">
+        <f>E36/E29/10000*E30</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="85">
+        <f>F36/F29/10000*F30</f>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="8">
+        <f>$C38</f>
+        <v>0.3</v>
+      </c>
+      <c r="E38" s="8">
+        <f>$C38</f>
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="8">
+        <f>$C38</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="79">
+        <f>C34/10000*C32*C38</f>
+        <v>30</v>
+      </c>
+      <c r="D39" s="79">
+        <f>D36/D29/10000*D32*D38</f>
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="79">
+        <f t="shared" ref="E39:F39" si="6">E36/E29/10000*E32*E38</f>
+        <v>0.15</v>
+      </c>
+      <c r="F39" s="79">
+        <f t="shared" si="6"/>
+        <v>1.46484375E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="79">
+        <f>C36/1024*C33*C38</f>
+        <v>146.484375</v>
+      </c>
+      <c r="D40" s="79">
+        <f>D36/1024*D33*D38</f>
+        <v>146.484375</v>
+      </c>
+      <c r="E40" s="79">
+        <f t="shared" ref="E40:F40" si="7">E36/1024*E33*E38</f>
+        <v>146.484375</v>
+      </c>
+      <c r="F40" s="79">
+        <f t="shared" si="7"/>
+        <v>146.484375</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="87">
+        <f>(C34/10000*C32+C36/1024*C33)*C38</f>
+        <v>176.484375</v>
+      </c>
+      <c r="D41" s="87">
+        <f>(D36/D29/10000*D32+D36/1024*D33)*D38</f>
+        <v>147.984375</v>
+      </c>
+      <c r="E41" s="87">
+        <f>(E36/E29/10000*E32+E36/1024*E33)*E38</f>
+        <v>146.63437500000001</v>
+      </c>
+      <c r="F41" s="87">
+        <f>(F36/F29/10000*F32+F36/1024*F33)*F38</f>
+        <v>146.4990234375</v>
+      </c>
+      <c r="G41" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="34">
+        <f>C34</f>
+        <v>100000000</v>
+      </c>
+      <c r="D42" s="34">
+        <f t="shared" ref="D42:F42" si="8">D34</f>
+        <v>100000000</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" si="8"/>
+        <v>100000000</v>
+      </c>
+      <c r="F42" s="34">
+        <f t="shared" si="8"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D43" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E43" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F43" s="80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:F44" si="9">D42/10000*D43</f>
+        <v>40</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="89">
+        <f>C37+C41+C44</f>
+        <v>1176.484375</v>
+      </c>
+      <c r="D45" s="89">
+        <f t="shared" ref="D45:F45" si="10">D37+D41+D44</f>
+        <v>237.984375</v>
+      </c>
+      <c r="E45" s="89">
+        <f t="shared" si="10"/>
+        <v>191.63437500000001</v>
+      </c>
+      <c r="F45" s="89">
+        <f t="shared" si="10"/>
+        <v>186.9873046875</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="92">
+        <f>1-D45/$C45</f>
+        <v>0.79771565176970582</v>
+      </c>
+      <c r="E46" s="92">
+        <f>1-E45/$C45</f>
+        <v>0.83711269008566302</v>
+      </c>
+      <c r="F46" s="92">
+        <f>1-F45/$C45</f>
+        <v>0.84106265356265353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7024,8 +11052,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8A95AC407529A4B8367EBCC1BDB6E99" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="359e9986da5f0317a5bce3ee849e0710">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1c88734f-45cf-4ee3-8ac1-e8e10e08d449" xmlns:ns3="876de33e-aaa5-4507-9b92-b84e676ded0d" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2573c02c50b7486099cee52acd1ac48" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8A95AC407529A4B8367EBCC1BDB6E99" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03601cbb5dfa022402bd40f726e5bd77">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1c88734f-45cf-4ee3-8ac1-e8e10e08d449" xmlns:ns3="876de33e-aaa5-4507-9b92-b84e676ded0d" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cba5aa92998f26d0ff1a5b887931029" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
     <xsd:import namespace="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
@@ -7054,6 +11082,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDocTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7145,6 +11174,11 @@
       </xsd:complexType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDocTags" ma:index="27" nillable="true" ma:displayName="MediaServiceDocTags" ma:hidden="true" ma:internalName="MediaServiceDocTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -7297,18 +11331,18 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2727BBA6-342A-4358-9024-9616B749BB59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7322,7 +11356,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3774730C-0B67-4068-95C4-61234E4BD678}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB0D66B-EF3C-4564-98F4-52D1C0877A16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7344,6 +11378,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
+++ b/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5592DE3-88B1-4601-8D67-F88A0730A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9017E009-D1C6-49D6-B4F3-6DFEE945B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35790" yWindow="2025" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{B139BBD8-3803-4571-98DF-3BB783EE896A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{B139BBD8-3803-4571-98DF-3BB783EE896A}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
     <sheet name="One-Time Backup" sheetId="3" r:id="rId2"/>
     <sheet name="Continuous Tiering" sheetId="4" r:id="rId3"/>
-    <sheet name="Cool vs Archive" sheetId="1" r:id="rId4"/>
+    <sheet name="Choose Tiers" sheetId="1" r:id="rId4"/>
     <sheet name="Packing Saving" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
   <si>
     <t>About Azure Archive Storage Cost Estimation Examples</t>
   </si>
@@ -634,11 +634,271 @@
     <t>Archiving blob count/month</t>
   </si>
   <si>
-    <t>Archive Cost Estimation Scenario: Compare Cool and Archive</t>
+    <t>Estimation Parameters (Archive)</t>
+  </si>
+  <si>
+    <t>Estimation Parameters (Cool)</t>
+  </si>
+  <si>
+    <t>Cost changes with read ratio</t>
+  </si>
+  <si>
+    <t>Monthly tiered data size (GB)</t>
+  </si>
+  <si>
+    <t>Monthly tiered data count</t>
+  </si>
+  <si>
+    <t>Data Retrieval (per GB)</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Monthly Cost</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Capacity Cost ($) = C * E</t>
+  </si>
+  <si>
+    <t>Data Retrieval Price ($/GB)</t>
+  </si>
+  <si>
+    <t>Data Rehydration Cost ($) = H * I + J * K /10,000</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This worksheet helps you compare how much you spend in one year if you were to tier the same number of blobs from either </t>
+      <t xml:space="preserve">Cost saving on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with packing</t>
+    </r>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>No Packing</t>
+  </si>
+  <si>
+    <t>Packing 10MB</t>
+  </si>
+  <si>
+    <t>Packing 100MB</t>
+  </si>
+  <si>
+    <t>Packing 1GB</t>
+  </si>
+  <si>
+    <t>Packing Size (MB)</t>
+  </si>
+  <si>
+    <t>Write GB</t>
+  </si>
+  <si>
+    <t>Read GB</t>
+  </si>
+  <si>
+    <t>File count</t>
+  </si>
+  <si>
+    <t>Single file size (MB)</t>
+  </si>
+  <si>
+    <t>Total File Size (MB)</t>
+  </si>
+  <si>
+    <t>Write Cost</t>
+  </si>
+  <si>
+    <t>Read %</t>
+  </si>
+  <si>
+    <t>Read Cost -TX</t>
+  </si>
+  <si>
+    <t>Read Cost - GB</t>
+  </si>
+  <si>
+    <t>Read Cost ($) - Best</t>
+  </si>
+  <si>
+    <t>Read Cost ($) - Worst</t>
+  </si>
+  <si>
+    <t>Packing Read</t>
+  </si>
+  <si>
+    <t>Hot Read Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Packing Cost ($)</t>
+  </si>
+  <si>
+    <t>E2E Cost (R/W/P)</t>
+  </si>
+  <si>
+    <t>Cost reduction - Best</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cost saving on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with packing</t>
+    </r>
+  </si>
+  <si>
+    <t>Write TX</t>
+  </si>
+  <si>
+    <t>Read TX</t>
+  </si>
+  <si>
+    <t>Read Cost</t>
+  </si>
+  <si>
+    <t>Cost Saving Estimation Scenario: Packing files for tiering</t>
+  </si>
+  <si>
+    <t>Write TX Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Write GB Price</t>
+  </si>
+  <si>
+    <t>Read TX Price ($/10K)</t>
+  </si>
+  <si>
+    <t>Read GB Price ($/GB)</t>
+  </si>
+  <si>
+    <t>All packed files hit on read</t>
+  </si>
+  <si>
+    <t>min % of packed files hit on read</t>
+  </si>
+  <si>
+    <t>Estimation Parameters (Hot)</t>
+  </si>
+  <si>
+    <t>Cost estimation</t>
+  </si>
+  <si>
+    <t>Tiering operation Cost ($) = A * B / 10,000</t>
+  </si>
+  <si>
+    <t>Cool  Cost</t>
+  </si>
+  <si>
+    <t>Archive Cost</t>
+  </si>
+  <si>
+    <t>Hot Cost</t>
+  </si>
+  <si>
+    <t>Use the estimation above to calculate the spending with Archive and Cool. The total cost would change significantly, when read percentage is changing</t>
+  </si>
+  <si>
+    <t>Cost Estimation Scenario: Choose Tiers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This worksheet helps you to estimate how much money you can save when you pack small files into large ones and then store them in the archive or cool tier. You can see a significant savings on reading files after you've packed and tiered them down. In the worst case, you'll have to read all of the packed files before you find the file(s) that you're after. However, you might have to read only one or just a few of them before you find the desired file. 
+To estimate the cost for your scenario, you need to update some of the parameters below: 
+1. Update the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Write TX Price, Read TX Price, Read GB Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to reflect the prices for these operations in your region and for the appropriate access tier. You can find the latest price rates in the following page: https://azure.microsoft.com/en-us/pricing/details/storage/blobs/.
+2. Update the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">File count, Single file size (MB), Read % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters to match your file size distribution and read requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This worksheet helps you compare how much you spend in a month if you were to store the same number of blobs in </t>
     </r>
     <r>
       <rPr>
@@ -649,19 +909,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">hot to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>archive</t>
+      <t xml:space="preserve">hot, cool or archive </t>
     </r>
     <r>
       <rPr>
@@ -671,40 +919,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hot to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> each month. This scenario assumes that you tier each blob by using the </t>
+      <t xml:space="preserve">each month. This scenario assumes that you tier each blob by using the </t>
     </r>
     <r>
       <rPr>
@@ -725,7 +940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> operation.
+      <t xml:space="preserve"> operation. It would demonstrate how your read pattern and file size distribution affect the total cost.
 To estimate the cost for your scenario, you need to update some of the parameters that appear in the </t>
     </r>
     <r>
@@ -878,269 +1093,12 @@
       <t xml:space="preserve"> parameters. Then, update all prices based on the desired region.  You can find latest price rates in: https://azure.microsoft.com/en-us/pricing/details/storage/blobs/.</t>
     </r>
   </si>
-  <si>
-    <t>Estimation Parameters (Archive)</t>
-  </si>
-  <si>
-    <t>Estimation Parameters (Cool)</t>
-  </si>
-  <si>
-    <t>Cost changes with read ratio</t>
-  </si>
-  <si>
-    <t>Monthly tiered data size (GB)</t>
-  </si>
-  <si>
-    <t>Use the estimation on the right to calculate the spending with Archive and Cool. The total cost would change significantly, when read percentage is changing</t>
-  </si>
-  <si>
-    <t>Monthly tiered data count</t>
-  </si>
-  <si>
-    <t>Cool  Spending</t>
-  </si>
-  <si>
-    <t>Archive Spending</t>
-  </si>
-  <si>
-    <t>Data Retrieval (per GB)</t>
-  </si>
-  <si>
-    <t>Cost estimation - Archive</t>
-  </si>
-  <si>
-    <t>Cost estimation - Cool</t>
-  </si>
-  <si>
-    <t>Archive</t>
-  </si>
-  <si>
-    <t>Monthly Cost</t>
-  </si>
-  <si>
-    <t>Cool</t>
-  </si>
-  <si>
-    <t>Tiering down Cost ($) = A * B / 10,000</t>
-  </si>
-  <si>
-    <t>Capacity Cost ($) = C * E</t>
-  </si>
-  <si>
-    <t>Data Retrieval Price ($/GB)</t>
-  </si>
-  <si>
-    <t>Data Rehydration Cost ($) = H * I + J * K /10,000</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cost saving on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Archive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with packing</t>
-    </r>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>No Packing</t>
-  </si>
-  <si>
-    <t>Packing 10MB</t>
-  </si>
-  <si>
-    <t>Packing 100MB</t>
-  </si>
-  <si>
-    <t>Packing 1GB</t>
-  </si>
-  <si>
-    <t>Packing Size (MB)</t>
-  </si>
-  <si>
-    <t>Write GB</t>
-  </si>
-  <si>
-    <t>Read GB</t>
-  </si>
-  <si>
-    <t>File count</t>
-  </si>
-  <si>
-    <t>Single file size (MB)</t>
-  </si>
-  <si>
-    <t>Total File Size (MB)</t>
-  </si>
-  <si>
-    <t>Write Cost</t>
-  </si>
-  <si>
-    <t>Read %</t>
-  </si>
-  <si>
-    <t>Read Cost -TX</t>
-  </si>
-  <si>
-    <t>Read Cost - GB</t>
-  </si>
-  <si>
-    <t>Read Cost ($) - Best</t>
-  </si>
-  <si>
-    <t>Read Cost ($) - Worst</t>
-  </si>
-  <si>
-    <t>Packing Read</t>
-  </si>
-  <si>
-    <t>Hot Read Price ($/10K)</t>
-  </si>
-  <si>
-    <t>Packing Cost ($)</t>
-  </si>
-  <si>
-    <t>E2E Cost (R/W/P)</t>
-  </si>
-  <si>
-    <t>Cost reduction - Best</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cost saving on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with packing</t>
-    </r>
-  </si>
-  <si>
-    <t>Write TX</t>
-  </si>
-  <si>
-    <t>Read TX</t>
-  </si>
-  <si>
-    <t>Read Cost</t>
-  </si>
-  <si>
-    <t>Cost Saving Estimation Scenario: Packing files for tiering</t>
-  </si>
-  <si>
-    <t>Write TX Price ($/10K)</t>
-  </si>
-  <si>
-    <t>Write GB Price</t>
-  </si>
-  <si>
-    <t>Read TX Price ($/10K)</t>
-  </si>
-  <si>
-    <t>Read GB Price ($/GB)</t>
-  </si>
-  <si>
-    <t>All packed files hit on read</t>
-  </si>
-  <si>
-    <t>min % of packed files hit on read</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This worksheet helps you estimate how much you save more when you pack small files into large ones and store in Archive tier and Cool tier. You can see significant saving on reading files after packing and tiering down. In the worst case, you need to read each packed files in order to read required unpackd files. In the best case, you may only need to read minimum packed files in order to read required unpacked files.
-To estimate the cost for your scenario, you need to update some of the parameters below: 
-1. Update the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Write TX Price, Read TX Price, Read GB Price</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> per region per access stier. You can find latest price rates in: https://azure.microsoft.com/en-us/pricing/details/storage/blobs/.
-2. Update the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">File count, Single file size (MB), Read % </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters per your file size distribution and read requirements.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1149,8 +1107,9 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,15 +1217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -1490,7 +1440,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1640,21 +1590,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1674,6 +1621,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1730,7 +1683,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monthly Spending (10TiB: 1M files 10.5 MiB</a:t>
+              <a:t>Monthly Spending (10TiB: 1M files 10 MiB</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1780,15 +1733,131 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cool vs Archive'!$P$7</c:f>
+              <c:f>'Choose Tiers'!$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cool  Spending</c:v>
+                  <c:v>Hot Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Choose Tiers'!$H$41:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.99599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8FC-4D07-8CCA-72A0E63A556B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Choose Tiers'!$I$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cool  Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1866,7 +1935,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Cool vs Archive'!$O$8:$O$13</c:f>
+              <c:f>'Choose Tiers'!$G$41:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1893,7 +1962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cool vs Archive'!$P$8:$P$13</c:f>
+              <c:f>'Choose Tiers'!$I$41:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1926,14 +1995,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cool vs Archive'!$Q$7</c:f>
+              <c:f>'Choose Tiers'!$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Archive Spending</c:v>
+                  <c:v>Archive Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2009,7 +2078,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Cool vs Archive'!$O$8:$O$13</c:f>
+              <c:f>'Choose Tiers'!$G$41:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2036,7 +2105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cool vs Archive'!$Q$8:$Q$13</c:f>
+              <c:f>'Choose Tiers'!$J$41:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5656,15 +5725,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5934,6 +6003,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6236,46 +6309,46 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="195.5703125" style="45" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="195.54296875" style="45" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" ht="32.5" x14ac:dyDescent="0.85">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="178.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="175" x14ac:dyDescent="0.7">
       <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:1" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.7">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.7">
       <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:1" ht="25" x14ac:dyDescent="0.7">
       <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:1" ht="25" x14ac:dyDescent="0.7">
       <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1" ht="25" x14ac:dyDescent="0.7">
       <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
@@ -6296,47 +6369,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1DB988-1C38-4E4D-8CF3-6880374B2680}">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" style="1" customWidth="1"/>
-    <col min="18" max="26" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="32.81640625" style="1" customWidth="1"/>
+    <col min="18" max="26" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:17" s="1" customFormat="1" ht="118.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="18"/>
       <c r="E3" s="1"/>
@@ -6352,12 +6425,12 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -6378,7 +6451,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6398,7 +6471,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -6419,7 +6492,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6439,7 +6512,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -6459,7 +6532,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6479,7 +6552,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6499,7 +6572,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -6519,7 +6592,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6539,7 +6612,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6559,7 +6632,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -6579,7 +6652,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -6599,7 +6672,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
@@ -6619,7 +6692,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6639,7 +6712,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
@@ -6659,7 +6732,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -6681,7 +6754,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="18"/>
       <c r="E21" s="1"/>
@@ -6697,12 +6770,12 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B22" s="47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="51" t="s">
@@ -6745,7 +6818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>46</v>
       </c>
@@ -6791,7 +6864,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="52" t="s">
         <v>48</v>
       </c>
@@ -6848,7 +6921,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="53" t="s">
         <v>50</v>
       </c>
@@ -6908,7 +6981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
         <v>52</v>
       </c>
@@ -6965,7 +7038,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
@@ -7022,7 +7095,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="52" t="s">
         <v>54</v>
       </c>
@@ -7079,7 +7152,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="53" t="s">
         <v>56</v>
       </c>
@@ -7139,7 +7212,7 @@
         <v>1216.5119999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
@@ -7196,7 +7269,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -7253,7 +7326,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>60</v>
       </c>
@@ -7310,7 +7383,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -7367,7 +7440,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>64</v>
       </c>
@@ -7424,7 +7497,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>66</v>
       </c>
@@ -7481,7 +7554,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="53" t="s">
         <v>68</v>
       </c>
@@ -7541,7 +7614,7 @@
         <v>845.7600000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
         <v>70</v>
@@ -7599,115 +7672,115 @@
         <v>2162.2719999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:Q2"/>
@@ -7721,48 +7794,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047D0281-6938-44E0-ADE5-9077A7B80996}">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="34.5703125" style="1" customWidth="1"/>
-    <col min="18" max="26" width="9.140625" style="1"/>
+    <col min="4" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="34.54296875" style="1" customWidth="1"/>
+    <col min="18" max="26" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B1" s="47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:17" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="18"/>
       <c r="E3" s="1"/>
@@ -7778,12 +7851,12 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
@@ -7804,7 +7877,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
@@ -7824,7 +7897,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -7845,7 +7918,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -7865,7 +7938,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -7885,7 +7958,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -7905,7 +7978,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7925,7 +7998,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -7945,7 +8018,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -7965,7 +8038,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -7985,7 +8058,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -8005,7 +8078,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -8025,7 +8098,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
@@ -8045,7 +8118,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
@@ -8065,7 +8138,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
@@ -8085,7 +8158,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -8107,7 +8180,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="18"/>
       <c r="E21" s="1"/>
@@ -8123,12 +8196,12 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B22" s="47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="51" t="s">
@@ -8171,7 +8244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>46</v>
       </c>
@@ -8228,7 +8301,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="52" t="s">
         <v>48</v>
       </c>
@@ -8285,7 +8358,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="53" t="s">
         <v>50</v>
       </c>
@@ -8345,7 +8418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
         <v>52</v>
       </c>
@@ -8402,7 +8475,7 @@
       </c>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
@@ -8459,7 +8532,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="52" t="s">
         <v>54</v>
       </c>
@@ -8516,7 +8589,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="53" t="s">
         <v>56</v>
       </c>
@@ -8576,7 +8649,7 @@
         <v>790.7328</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
@@ -8633,7 +8706,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -8690,7 +8763,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>60</v>
       </c>
@@ -8747,7 +8820,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -8804,7 +8877,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>64</v>
       </c>
@@ -8861,7 +8934,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>66</v>
       </c>
@@ -8918,7 +8991,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="53" t="s">
         <v>68</v>
       </c>
@@ -8978,7 +9051,7 @@
         <v>549.74400000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
         <v>70</v>
@@ -9036,115 +9109,115 @@
         <v>1460.4767999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:Q2"/>
@@ -9156,94 +9229,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA31A6-642C-4B4E-B1C6-775064368687}">
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="1" customWidth="1"/>
-    <col min="19" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="7" max="7" width="40.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="1" customWidth="1"/>
+    <col min="13" max="22" width="9.1796875" style="1"/>
+    <col min="23" max="23" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:26" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B1" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" s="1" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="2:26" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="2:32" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-    </row>
-    <row r="3" spans="2:32" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="19">
         <f>1024*10</f>
@@ -9252,23 +9308,26 @@
       <c r="E5" s="15"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="19">
         <f>$D$5</f>
         <v>10240</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L5" s="19">
+        <f>$D$5</f>
+        <v>10240</v>
+      </c>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="19">
         <v>1000000</v>
@@ -9276,17 +9335,23 @@
       <c r="E6" s="15"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6" s="19">
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="R6" s="6"/>
-      <c r="AF6"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="19">
+        <f>$D$6</f>
+        <v>1000000</v>
+      </c>
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -9304,32 +9369,17 @@
         <f>H5/H6*1024</f>
         <v>10.485760000000001</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="57" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="AF7"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="L7" s="19">
+        <f>L5/L6*1024</f>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -9346,33 +9396,17 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L8" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M8" s="59">
-        <f>K8/L8*1024</f>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N8" s="68">
+      <c r="J8" s="5"/>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="7">
+        <f>$D$8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="60">
-        <v>0.01</v>
-      </c>
-      <c r="P8" s="61">
-        <v>166.68199999999999</v>
-      </c>
-      <c r="Q8" s="61">
-        <v>27.185600000000001</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -9389,33 +9423,16 @@
         <f>$D$9</f>
         <v>0.01</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L9" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M9" s="59">
-        <f t="shared" ref="M9:M13" si="0">K9/L9*1024</f>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N9" s="68">
-        <v>1</v>
-      </c>
-      <c r="O9" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="61">
-        <v>175.988</v>
-      </c>
-      <c r="Q9" s="61">
-        <v>90.61760000000001</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="AF9"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -9431,33 +9448,16 @@
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L10" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M10" s="59">
-        <f t="shared" si="0"/>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N10" s="68">
-        <v>1</v>
-      </c>
-      <c r="O10" s="60">
-        <v>0.25</v>
-      </c>
-      <c r="P10" s="61">
-        <v>191.49799999999999</v>
-      </c>
-      <c r="Q10" s="61">
-        <v>196.33759999999998</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -9473,34 +9473,17 @@
       <c r="H11" s="14">
         <v>1.52E-2</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L11" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M11" s="59">
-        <f t="shared" si="0"/>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N11" s="68">
-        <v>1</v>
-      </c>
-      <c r="O11" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="61">
-        <v>217.34800000000001</v>
-      </c>
-      <c r="Q11" s="61">
-        <v>372.5376</v>
-      </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -9516,34 +9499,17 @@
       <c r="H12" s="16">
         <v>0.1</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L12" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M12" s="59">
-        <f t="shared" si="0"/>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N12" s="68">
-        <v>1</v>
-      </c>
-      <c r="O12" s="60">
-        <v>0.75</v>
-      </c>
-      <c r="P12" s="61">
-        <v>243.19799999999998</v>
-      </c>
-      <c r="Q12" s="61">
-        <v>548.73760000000004</v>
-      </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J12" s="5"/>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -9559,34 +9525,17 @@
       <c r="H13" s="16">
         <v>0.01</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="58">
-        <v>10240</v>
-      </c>
-      <c r="L13" s="58">
-        <v>1000000</v>
-      </c>
-      <c r="M13" s="59">
-        <f t="shared" si="0"/>
-        <v>10.485760000000001</v>
-      </c>
-      <c r="N13" s="68">
-        <v>1</v>
-      </c>
-      <c r="O13" s="60">
-        <v>1</v>
-      </c>
-      <c r="P13" s="61">
-        <v>269.048</v>
-      </c>
-      <c r="Q13" s="61">
-        <v>724.93759999999997</v>
-      </c>
-      <c r="R13" s="71"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="94">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -9598,18 +9547,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16"/>
-      <c r="J14" s="20"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" s="16">
         <v>0.02</v>
@@ -9617,20 +9561,20 @@
       <c r="E15" s="15"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H15" s="16">
         <v>0.01</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+      <c r="K15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -9642,15 +9586,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="16"/>
-      <c r="J16" s="20"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -9666,15 +9605,15 @@
       <c r="H17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+      <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="19"/>
@@ -9683,43 +9622,50 @@
       <c r="G18" s="1"/>
       <c r="H18" s="6"/>
       <c r="J18" s="20"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
       <c r="F19" s="21" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
-      <c r="J19" s="20"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J19" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>46</v>
       </c>
@@ -9741,10 +9687,18 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J21" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="27">
+        <f>$D$6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="63" t="s">
         <v>48</v>
       </c>
@@ -9766,15 +9720,23 @@
         <f>H$12</f>
         <v>0.1</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="29">
+        <f>L$12</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D23" s="32">
         <f>D21*D22/10000</f>
@@ -9785,16 +9747,24 @@
         <v>50</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H23" s="32">
         <f>H21*H22/10000</f>
         <v>10</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J23" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="32">
+        <f>L21*L22/10000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="63" t="s">
         <v>52</v>
       </c>
@@ -9816,10 +9786,18 @@
         <f>H5</f>
         <v>10240</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="35">
+        <f>L5</f>
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>53</v>
       </c>
@@ -9841,10 +9819,18 @@
         <f>$H$6</f>
         <v>1000000</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="35">
+        <f>$H$6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="63" t="s">
         <v>54</v>
       </c>
@@ -9866,15 +9852,23 @@
         <f>H$11</f>
         <v>1.52E-2</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J26" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="38">
+        <f>L$11</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="64" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D27" s="32">
         <f>D24*D26</f>
@@ -9885,16 +9879,24 @@
         <v>56</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H27" s="32">
         <f>H24*H26</f>
         <v>155.648</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="32">
+        <f>L24*L26</f>
+        <v>212.99199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
         <v>58</v>
       </c>
@@ -9916,10 +9918,18 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="35">
+        <f>$D$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="63" t="s">
         <v>59</v>
       </c>
@@ -9941,10 +9951,18 @@
         <f>$D$9</f>
         <v>0.01</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="62">
+        <f>$D$9</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="66" t="s">
         <v>60</v>
       </c>
@@ -9966,10 +9984,18 @@
         <f>H24*H$9</f>
         <v>102.4</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="35">
+        <f>L24*L$9</f>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="66" t="s">
         <v>62</v>
       </c>
@@ -9985,16 +10011,24 @@
         <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H31" s="40">
         <f>H$15</f>
         <v>0.01</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="40">
+        <f>L$15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="66" t="s">
         <v>64</v>
       </c>
@@ -10016,10 +10050,18 @@
         <f>H$25*H$28*H$29</f>
         <v>10000</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="35">
+        <f>L$25*L$28*L$29</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="66" t="s">
         <v>66</v>
       </c>
@@ -10041,15 +10083,23 @@
         <f>H$13</f>
         <v>0.01</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="40">
+        <f>L$13</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="64" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D34" s="32">
         <f>(D31*D30+D32*D33/10000)*D$8</f>
@@ -10060,16 +10110,24 @@
         <v>68</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H34" s="32">
         <f>(H31*H30+H32*H33/10000)*H$8</f>
         <v>1.034</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="32">
+        <f>(L31*L30+L32*L33/10000)*L$8</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
         <v>70</v>
@@ -10087,116 +10145,398 @@
         <f>H23+H27+H34</f>
         <v>166.68199999999999</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="2:18" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-    </row>
-    <row r="37" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="67"/>
-    </row>
-    <row r="42" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="11:17" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="11:17" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="11:17" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="11:17" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="42"/>
+      <c r="K35" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="65">
+        <f>L23+L27+L34</f>
+        <v>217.99599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="68"/>
+      <c r="C37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="20"/>
+      <c r="C38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="20"/>
+      <c r="C40" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20"/>
+      <c r="C41" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D41" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E41" s="59">
+        <f>C41/D41*1024</f>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F41" s="67">
+        <v>1</v>
+      </c>
+      <c r="G41" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="H41" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I41" s="61">
+        <v>166.68199999999999</v>
+      </c>
+      <c r="J41" s="61">
+        <v>27.185600000000001</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="93"/>
+    </row>
+    <row r="42" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="20"/>
+      <c r="C42" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D42" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E42" s="59">
+        <f t="shared" ref="E42:E46" si="0">C42/D42*1024</f>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F42" s="67">
+        <v>1</v>
+      </c>
+      <c r="G42" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I42" s="61">
+        <v>175.988</v>
+      </c>
+      <c r="J42" s="61">
+        <v>90.61760000000001</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20"/>
+      <c r="C43" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D43" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E43" s="59">
+        <f t="shared" si="0"/>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F43" s="67">
+        <v>1</v>
+      </c>
+      <c r="G43" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I43" s="61">
+        <v>191.49799999999999</v>
+      </c>
+      <c r="J43" s="61">
+        <v>196.33759999999998</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="C44" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D44" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E44" s="59">
+        <f t="shared" si="0"/>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F44" s="67">
+        <v>1</v>
+      </c>
+      <c r="G44" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I44" s="61">
+        <v>217.34800000000001</v>
+      </c>
+      <c r="J44" s="61">
+        <v>372.5376</v>
+      </c>
+      <c r="K44" s="70"/>
+    </row>
+    <row r="45" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20"/>
+      <c r="C45" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D45" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="59">
+        <f t="shared" si="0"/>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F45" s="67">
+        <v>1</v>
+      </c>
+      <c r="G45" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I45" s="61">
+        <v>243.19799999999998</v>
+      </c>
+      <c r="J45" s="61">
+        <v>548.73760000000004</v>
+      </c>
+      <c r="K45" s="70"/>
+    </row>
+    <row r="46" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="20"/>
+      <c r="C46" s="58">
+        <v>10240</v>
+      </c>
+      <c r="D46" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="E46" s="59">
+        <f t="shared" si="0"/>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="F46" s="67">
+        <v>1</v>
+      </c>
+      <c r="G46" s="60">
+        <v>1</v>
+      </c>
+      <c r="H46" s="61">
+        <v>217.99599999999998</v>
+      </c>
+      <c r="I46" s="61">
+        <v>269.048</v>
+      </c>
+      <c r="J46" s="61">
+        <v>724.93759999999997</v>
+      </c>
+      <c r="K46" s="70"/>
+    </row>
+    <row r="47" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="20"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="20"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="20"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="20"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="20"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="20"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="20"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="20"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="20"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="20"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="20"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="91"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="92"/>
+    </row>
+    <row r="70" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K85" s="56"/>
       <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-    </row>
-    <row r="86" spans="11:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K86" s="56"/>
       <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-    </row>
-    <row r="87" spans="11:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K87" s="56"/>
       <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10208,68 +10548,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FFEA36-F962-431B-80C2-9B4D519A6D4C}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="6" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B1" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" s="1" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="164" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" s="77" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+    </row>
+    <row r="3" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:17" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>30</v>
@@ -10285,9 +10625,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C7" s="17">
         <v>0.1</v>
@@ -10302,9 +10642,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -10319,9 +10659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -10336,9 +10676,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1">
         <v>0.02</v>
@@ -10353,9 +10693,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18">
         <v>100000000</v>
@@ -10370,9 +10710,9 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>0.5</v>
@@ -10387,9 +10727,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C13" s="34">
         <f>C11*C12</f>
@@ -10408,30 +10748,30 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="84">
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="81">
         <f>C11/10000*C7</f>
         <v>1000</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <f>D13/D6/10000*D7</f>
         <v>50</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="82">
         <f>E13/E6/10000*E7</f>
         <v>5</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="82">
         <f>F13/F6/10000*F7</f>
         <v>0.48828125</v>
       </c>
     </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C15" s="8">
         <v>0.3</v>
@@ -10449,99 +10789,99 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="79">
+        <v>101</v>
+      </c>
+      <c r="C16" s="76">
         <f>C11/10000*C9*C15</f>
         <v>15000</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="76">
         <f>D13/D6/10000*D9*D15</f>
         <v>750</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="76">
         <f t="shared" ref="E16:F16" si="1">E13/E6/10000*E9*E15</f>
         <v>75</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="76">
         <f t="shared" si="1"/>
         <v>7.32421875</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="79">
+        <v>102</v>
+      </c>
+      <c r="C17" s="76">
         <f>C13/1024*C10*C15</f>
         <v>292.96875</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="76">
         <f>D13/1024*D10*D15</f>
         <v>292.96875</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="76">
         <f t="shared" ref="E17:F17" si="2">E13/1024*E10*E15</f>
         <v>292.96875</v>
       </c>
-      <c r="F17" s="79">
+      <c r="F17" s="76">
         <f t="shared" si="2"/>
         <v>292.96875</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="87">
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="84">
         <f>(C11/10000*C9+C13/1024*C10)*C15</f>
         <v>15292.96875</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="84">
         <f>(D13/D6/10000*D9+D13/1024*D10)*D15</f>
         <v>1042.96875</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="84">
         <f>(E13/E6/10000*E9+E13/1024*E10)*E15</f>
         <v>367.96875</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="84">
         <f>(F13/F6/10000*F9+F13/1024*F10)*F15</f>
         <v>300.29296875</v>
       </c>
-      <c r="G18" s="81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="83">
+      <c r="G18" s="78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="80">
         <f>(C11/10000*C9+C13/1024*C10)*C15</f>
         <v>15292.96875</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="80">
         <f>D13/D6/10000*D9*D15+D13/1024*D10</f>
         <v>1726.5625</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="80">
         <f>E13/E6/10000*E9*E15+E13/1024*E10</f>
         <v>1051.5625</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="80">
         <f>F13/F6/10000*F9*F15+F13/1024*F10</f>
         <v>983.88671875</v>
       </c>
-      <c r="G19" s="81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C20" s="34">
         <f>C11</f>
@@ -10560,26 +10900,26 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="80">
+        <v>106</v>
+      </c>
+      <c r="C21" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -10597,74 +10937,74 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="89">
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="86">
         <f>C14+C18+C22</f>
         <v>16292.96875</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="86">
         <f t="shared" ref="D23:F23" si="5">D14+D18+D22</f>
         <v>1132.96875</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="86">
         <f t="shared" si="5"/>
         <v>412.96875</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="86">
         <f t="shared" si="5"/>
         <v>340.78125</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="92">
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="89">
         <f>1-D23/$C23</f>
         <v>0.93046271877247666</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="89">
         <f>1-E23/$C23</f>
         <v>0.97465356029729078</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="89">
         <f>1-F23/$C23</f>
         <v>0.97908415248141933</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:7" s="77" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:7" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="B27" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>30</v>
@@ -10680,9 +11020,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C30" s="17">
         <v>0.1</v>
@@ -10697,9 +11037,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -10714,9 +11054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1">
         <v>0.01</v>
@@ -10731,9 +11071,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1">
         <v>0.01</v>
@@ -10748,9 +11088,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C34" s="18">
         <v>100000000</v>
@@ -10765,9 +11105,9 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1">
         <v>0.5</v>
@@ -10782,9 +11122,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C36" s="34">
         <f>C34*C35</f>
@@ -10803,30 +11143,30 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="84">
+    <row r="37" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="81">
         <f>C34/10000*C30</f>
         <v>1000</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="82">
         <f>D36/D29/10000*D30</f>
         <v>50</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E37" s="82">
         <f>E36/E29/10000*E30</f>
         <v>5</v>
       </c>
-      <c r="F37" s="85">
+      <c r="F37" s="82">
         <f>F36/F29/10000*F30</f>
         <v>0.48828125</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C38" s="8">
         <v>0.3</v>
@@ -10844,75 +11184,75 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="79">
+        <v>101</v>
+      </c>
+      <c r="C39" s="76">
         <f>C34/10000*C32*C38</f>
         <v>30</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="76">
         <f>D36/D29/10000*D32*D38</f>
         <v>1.5</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="76">
         <f t="shared" ref="E39:F39" si="6">E36/E29/10000*E32*E38</f>
         <v>0.15</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="76">
         <f t="shared" si="6"/>
         <v>1.46484375E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="79">
+        <v>102</v>
+      </c>
+      <c r="C40" s="76">
         <f>C36/1024*C33*C38</f>
         <v>146.484375</v>
       </c>
-      <c r="D40" s="79">
+      <c r="D40" s="76">
         <f>D36/1024*D33*D38</f>
         <v>146.484375</v>
       </c>
-      <c r="E40" s="79">
+      <c r="E40" s="76">
         <f t="shared" ref="E40:F40" si="7">E36/1024*E33*E38</f>
         <v>146.484375</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="76">
         <f t="shared" si="7"/>
         <v>146.484375</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="87">
+    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="84">
         <f>(C34/10000*C32+C36/1024*C33)*C38</f>
         <v>176.484375</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="84">
         <f>(D36/D29/10000*D32+D36/1024*D33)*D38</f>
         <v>147.984375</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E41" s="84">
         <f>(E36/E29/10000*E32+E36/1024*E33)*E38</f>
         <v>146.63437500000001</v>
       </c>
-      <c r="F41" s="87">
+      <c r="F41" s="84">
         <f>(F36/F29/10000*F32+F36/1024*F33)*F38</f>
         <v>146.4990234375</v>
       </c>
-      <c r="G41" s="81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C42" s="34">
         <f>C34</f>
@@ -10931,26 +11271,26 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="80">
+        <v>106</v>
+      </c>
+      <c r="C43" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C44" s="10">
         <v>0</v>
@@ -10968,56 +11308,56 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="89">
+    <row r="45" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="86">
         <f>C37+C41+C44</f>
         <v>1176.484375</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="86">
         <f t="shared" ref="D45:F45" si="10">D37+D41+D44</f>
         <v>237.984375</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="86">
         <f t="shared" si="10"/>
         <v>191.63437500000001</v>
       </c>
-      <c r="F45" s="89">
+      <c r="F45" s="86">
         <f t="shared" si="10"/>
         <v>186.9873046875</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="92">
+    <row r="46" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="89">
         <f>1-D45/$C45</f>
         <v>0.79771565176970582</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="89">
         <f>1-E45/$C45</f>
         <v>0.83711269008566302</v>
       </c>
-      <c r="F46" s="92">
+      <c r="F46" s="89">
         <f>1-F45/$C45</f>
         <v>0.84106265356265353</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:Q2"/>
@@ -11331,18 +11671,18 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2727BBA6-342A-4358-9024-9616B749BB59}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
+++ b/docs/docs/backup-and-archive/azure-archive-storage-cost-estimation/azure-archive-storage-cost-estimation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9017E009-D1C6-49D6-B4F3-6DFEE945B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{59DC40D7-BCFE-4E9D-8CDB-B15467A4DA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5576977-9D6D-4FE3-ABB4-57002086E849}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{B139BBD8-3803-4571-98DF-3BB783EE896A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="134">
   <si>
     <t>About Azure Archive Storage Cost Estimation Examples</t>
   </si>
@@ -897,6 +897,12 @@
     </r>
   </si>
   <si>
+    <t>Estimation Parameters (Cold)</t>
+  </si>
+  <si>
+    <t>Cold Cost</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This worksheet helps you compare how much you spend in a month if you were to store the same number of blobs in </t>
     </r>
@@ -909,7 +915,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">hot, cool or archive </t>
+      <t xml:space="preserve">hot, cool, cold or archive </t>
     </r>
     <r>
       <rPr>
@@ -1440,7 +1446,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1594,8 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1619,15 +1623,27 @@
     <xf numFmtId="169" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1864,8 +1880,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1994,11 +2010,127 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Choose Tiers'!$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cold Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Choose Tiers'!$J$41:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.035999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.76399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>372.06399999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC26-4882-9F48-9033EBC02102}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Choose Tiers'!$K$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2105,7 +2237,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Choose Tiers'!$J$41:$J$46</c:f>
+              <c:f>'Choose Tiers'!$K$41:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6005,10 +6137,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6362,6 +6490,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classified as Microsoft Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6390,24 +6521,24 @@
       </c>
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
@@ -7787,6 +7918,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classified as Microsoft Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7816,24 +7950,24 @@
       </c>
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
@@ -9224,14 +9358,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classified as Microsoft Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA31A6-642C-4B4E-B1C6-775064368687}">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
@@ -9249,35 +9386,38 @@
     <col min="10" max="10" width="6.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.6328125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13" max="22" width="9.1796875" style="1"/>
+    <col min="13" max="14" width="9.1796875" style="1"/>
+    <col min="15" max="15" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9.1796875" style="1"/>
     <col min="23" max="23" width="21.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
+    <row r="1" spans="2:30" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.65">
       <c r="B1" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="2:26" s="1" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="2:26" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" s="1" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+    </row>
+    <row r="3" spans="2:30" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -9285,18 +9425,25 @@
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="J4" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -9305,7 +9452,7 @@
         <f>1024*10</f>
         <v>10240</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
         <v>78</v>
@@ -9314,6 +9461,7 @@
         <f>$D$5</f>
         <v>10240</v>
       </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>78</v>
@@ -9322,9 +9470,19 @@
         <f>$D$5</f>
         <v>10240</v>
       </c>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N5" s="5"/>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="19">
+        <f>$D$5</f>
+        <v>10240</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>79</v>
@@ -9332,7 +9490,7 @@
       <c r="D6" s="19">
         <v>1000000</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1" t="s">
         <v>79</v>
@@ -9341,6 +9499,7 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="5"/>
       <c r="K6" s="1" t="s">
         <v>79</v>
@@ -9349,9 +9508,19 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-      <c r="Z6"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N6" s="5"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="19">
+        <f>$D$6</f>
+        <v>1000000</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -9360,7 +9529,7 @@
         <f>D5/D6*1024</f>
         <v>10.485760000000001</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="5"/>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -9369,6 +9538,7 @@
         <f>H5/H6*1024</f>
         <v>10.485760000000001</v>
       </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="5"/>
       <c r="K7" s="1" t="s">
         <v>12</v>
@@ -9377,9 +9547,19 @@
         <f>L5/L6*1024</f>
         <v>10.485760000000001</v>
       </c>
-      <c r="Z7"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N7" s="5"/>
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="19">
+        <f>P5/P6*1024</f>
+        <v>10.485760000000001</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -9404,15 +9584,25 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
-      <c r="Z8"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N8" s="5"/>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7">
+        <f>$D$8</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -9421,18 +9611,29 @@
       </c>
       <c r="H9" s="9">
         <f>$D$9</f>
-        <v>0.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="5"/>
       <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="9">
+        <f>$D$9</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="9">
         <v>0.01</v>
       </c>
-      <c r="Z9"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -9448,6 +9649,7 @@
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="5"/>
       <c r="K10" s="1" t="s">
         <v>19</v>
@@ -9455,9 +9657,18 @@
       <c r="L10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z10"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N10" s="5"/>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -9471,19 +9682,31 @@
         <v>23</v>
       </c>
       <c r="H11" s="14">
-        <v>1.52E-2</v>
-      </c>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="14">
+        <v>1.52E-2</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="14">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -9497,19 +9720,31 @@
         <v>24</v>
       </c>
       <c r="H12" s="16">
-        <v>0.1</v>
-      </c>
+        <v>0.18</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="16">
         <v>0.05</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -9523,19 +9758,31 @@
         <v>25</v>
       </c>
       <c r="H13" s="16">
-        <v>0.01</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="94">
+      <c r="L13" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="91">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -9547,10 +9794,17 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N14" s="5"/>
+      <c r="P14" s="16"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -9564,17 +9818,29 @@
         <v>80</v>
       </c>
       <c r="H15" s="16">
-        <v>0.01</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L15" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -9586,10 +9852,17 @@
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N16" s="5"/>
+      <c r="P16" s="16"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -9605,6 +9878,7 @@
       <c r="H17" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="1" t="s">
         <v>29</v>
@@ -9612,36 +9886,63 @@
       <c r="L17" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N17" s="5"/>
+      <c r="O17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
       <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="20"/>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N18" s="20"/>
+      <c r="P18" s="6"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="21" t="s">
         <v>123</v>
       </c>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N19" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
         <v>81</v>
@@ -9649,7 +9950,7 @@
       <c r="D20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22" t="s">
         <v>83</v>
@@ -9657,6 +9958,7 @@
       <c r="H20" s="24" t="s">
         <v>82</v>
       </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="23"/>
       <c r="K20" s="22" t="s">
         <v>83</v>
@@ -9664,8 +9966,19 @@
       <c r="L20" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N20" s="23"/>
+      <c r="O20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>46</v>
       </c>
@@ -9676,7 +9989,7 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="63" t="s">
         <v>46</v>
       </c>
@@ -9687,6 +10000,7 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="63" t="s">
         <v>46</v>
       </c>
@@ -9697,8 +10011,22 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N21" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="27">
+        <f>$D$6</f>
+        <v>1000000</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22" s="63" t="s">
         <v>48</v>
       </c>
@@ -9709,7 +10037,7 @@
         <f>D$12</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="63" t="s">
         <v>48</v>
       </c>
@@ -9718,8 +10046,9 @@
       </c>
       <c r="H22" s="29">
         <f>H$12</f>
-        <v>0.1</v>
-      </c>
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="63" t="s">
         <v>48</v>
       </c>
@@ -9728,10 +10057,24 @@
       </c>
       <c r="L22" s="29">
         <f>L$12</f>
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="29">
+        <f>P$12</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23" s="64" t="s">
         <v>50</v>
       </c>
@@ -9742,7 +10085,7 @@
         <f>D21*D22/10000</f>
         <v>10</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="64" t="s">
         <v>50</v>
       </c>
@@ -9751,8 +10094,9 @@
       </c>
       <c r="H23" s="32">
         <f>H21*H22/10000</f>
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="64" t="s">
         <v>50</v>
       </c>
@@ -9761,10 +10105,24 @@
       </c>
       <c r="L23" s="32">
         <f>L21*L22/10000</f>
+        <v>10</v>
+      </c>
+      <c r="N23" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="32">
+        <f>P21*P22/10000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24" s="63" t="s">
         <v>52</v>
       </c>
@@ -9775,7 +10133,7 @@
         <f>D5</f>
         <v>10240</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="63" t="s">
         <v>52</v>
       </c>
@@ -9786,6 +10144,7 @@
         <f>H5</f>
         <v>10240</v>
       </c>
+      <c r="I24" s="15"/>
       <c r="J24" s="63" t="s">
         <v>52</v>
       </c>
@@ -9796,8 +10155,22 @@
         <f>L5</f>
         <v>10240</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="35">
+        <f>P5</f>
+        <v>10240</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>53</v>
       </c>
@@ -9808,7 +10181,7 @@
         <f>$D$6</f>
         <v>1000000</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="63" t="s">
         <v>53</v>
       </c>
@@ -9816,9 +10189,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="35">
-        <f>$H$6</f>
+        <f>$L$6</f>
         <v>1000000</v>
       </c>
+      <c r="I25" s="15"/>
       <c r="J25" s="63" t="s">
         <v>53</v>
       </c>
@@ -9826,11 +10200,25 @@
         <v>11</v>
       </c>
       <c r="L25" s="35">
-        <f>$H$6</f>
+        <f>$L$6</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="35">
+        <f>$L$6</f>
+        <v>1000000</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26" s="63" t="s">
         <v>54</v>
       </c>
@@ -9841,7 +10229,7 @@
         <f>D$11</f>
         <v>9.8999999999999999E-4</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="63" t="s">
         <v>54</v>
       </c>
@@ -9850,8 +10238,9 @@
       </c>
       <c r="H26" s="38">
         <f>H$11</f>
-        <v>1.52E-2</v>
-      </c>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="63" t="s">
         <v>54</v>
       </c>
@@ -9860,10 +10249,24 @@
       </c>
       <c r="L26" s="38">
         <f>L$11</f>
+        <v>1.52E-2</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="38">
+        <f>P$11</f>
         <v>2.0799999999999999E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27" s="64" t="s">
         <v>56</v>
       </c>
@@ -9874,7 +10277,7 @@
         <f>D24*D26</f>
         <v>10.137599999999999</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="64" t="s">
         <v>56</v>
       </c>
@@ -9883,8 +10286,9 @@
       </c>
       <c r="H27" s="32">
         <f>H24*H26</f>
-        <v>155.648</v>
-      </c>
+        <v>36.863999999999997</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="J27" s="64" t="s">
         <v>56</v>
       </c>
@@ -9893,10 +10297,24 @@
       </c>
       <c r="L27" s="32">
         <f>L24*L26</f>
+        <v>155.648</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="32">
+        <f>P24*P26</f>
         <v>212.99199999999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
         <v>58</v>
       </c>
@@ -9907,7 +10325,7 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="63" t="s">
         <v>58</v>
       </c>
@@ -9918,6 +10336,7 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
+      <c r="I28" s="15"/>
       <c r="J28" s="63" t="s">
         <v>58</v>
       </c>
@@ -9928,8 +10347,22 @@
         <f>$D$8</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N28" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="35">
+        <f>$D$8</f>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B29" s="63" t="s">
         <v>59</v>
       </c>
@@ -9938,9 +10371,9 @@
       </c>
       <c r="D29" s="62">
         <f>$D$9</f>
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="94"/>
       <c r="F29" s="63" t="s">
         <v>59</v>
       </c>
@@ -9949,8 +10382,9 @@
       </c>
       <c r="H29" s="62">
         <f>$D$9</f>
-        <v>0.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" s="15"/>
       <c r="J29" s="63" t="s">
         <v>59</v>
       </c>
@@ -9959,10 +10393,24 @@
       </c>
       <c r="L29" s="62">
         <f>$D$9</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N29" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="62">
+        <f>$D$9</f>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B30" s="66" t="s">
         <v>60</v>
       </c>
@@ -9971,9 +10419,9 @@
       </c>
       <c r="D30" s="35">
         <f>D24*D$9</f>
-        <v>102.4</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>10240</v>
+      </c>
+      <c r="E30" s="33"/>
       <c r="F30" s="66" t="s">
         <v>60</v>
       </c>
@@ -9982,8 +10430,9 @@
       </c>
       <c r="H30" s="35">
         <f>H24*H$9</f>
-        <v>102.4</v>
-      </c>
+        <v>10240</v>
+      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="66" t="s">
         <v>60</v>
       </c>
@@ -9992,10 +10441,24 @@
       </c>
       <c r="L30" s="35">
         <f>L24*L$9</f>
+        <v>10240</v>
+      </c>
+      <c r="N30" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="35">
+        <f>P24*P$9</f>
         <v>102.4</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31" s="66" t="s">
         <v>62</v>
       </c>
@@ -10006,7 +10469,7 @@
         <f>D$15</f>
         <v>0.02</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="66" t="s">
         <v>62</v>
       </c>
@@ -10015,8 +10478,9 @@
       </c>
       <c r="H31" s="40">
         <f>H$15</f>
-        <v>0.01</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="I31" s="15"/>
       <c r="J31" s="66" t="s">
         <v>62</v>
       </c>
@@ -10025,10 +10489,24 @@
       </c>
       <c r="L31" s="40">
         <f>L$15</f>
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="40">
+        <f>P$15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B32" s="66" t="s">
         <v>64</v>
       </c>
@@ -10037,9 +10515,9 @@
       </c>
       <c r="D32" s="35">
         <f>D$25*D$28*D$29</f>
-        <v>10000</v>
-      </c>
-      <c r="E32" s="15"/>
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="33"/>
       <c r="F32" s="66" t="s">
         <v>64</v>
       </c>
@@ -10048,8 +10526,9 @@
       </c>
       <c r="H32" s="35">
         <f>H$25*H$28*H$29</f>
-        <v>10000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="I32" s="15"/>
       <c r="J32" s="66" t="s">
         <v>64</v>
       </c>
@@ -10058,10 +10537,24 @@
       </c>
       <c r="L32" s="35">
         <f>L$25*L$28*L$29</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+        <v>1000000</v>
+      </c>
+      <c r="N32" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="35">
+        <f>P$25*P$28*P$29</f>
+        <v>1000000</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B33" s="66" t="s">
         <v>66</v>
       </c>
@@ -10072,7 +10565,7 @@
         <f>D$13</f>
         <v>5</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="66" t="s">
         <v>66</v>
       </c>
@@ -10081,8 +10574,9 @@
       </c>
       <c r="H33" s="40">
         <f>H$13</f>
-        <v>0.01</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="15"/>
       <c r="J33" s="66" t="s">
         <v>66</v>
       </c>
@@ -10091,10 +10585,24 @@
       </c>
       <c r="L33" s="40">
         <f>L$13</f>
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" s="40">
+        <f>P$13</f>
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B34" s="64" t="s">
         <v>68</v>
       </c>
@@ -10103,9 +10611,9 @@
       </c>
       <c r="D34" s="32">
         <f>(D31*D30+D32*D33/10000)*D$8</f>
-        <v>7.048</v>
-      </c>
-      <c r="E34" s="15"/>
+        <v>704.8</v>
+      </c>
+      <c r="E34" s="31"/>
       <c r="F34" s="64" t="s">
         <v>68</v>
       </c>
@@ -10114,8 +10622,9 @@
       </c>
       <c r="H34" s="32">
         <f>(H31*H30+H32*H33/10000)*H$8</f>
-        <v>1.034</v>
-      </c>
+        <v>317.2</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="64" t="s">
         <v>68</v>
       </c>
@@ -10124,38 +10633,65 @@
       </c>
       <c r="L34" s="32">
         <f>(L31*L30+L32*L33/10000)*L$8</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>103.4</v>
+      </c>
+      <c r="N34" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" s="32">
+        <f>(P31*P30+P32*P33/10000)*P$8</f>
+        <v>0.4</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="65">
         <f>D23+D27+D34</f>
-        <v>27.185600000000001</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>724.93759999999997</v>
+      </c>
+      <c r="E35" s="54"/>
       <c r="F35" s="42"/>
       <c r="G35" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="65">
         <f>H23+H27+H34</f>
-        <v>166.68199999999999</v>
-      </c>
+        <v>372.06399999999996</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="42"/>
       <c r="K35" s="43" t="s">
         <v>70</v>
       </c>
       <c r="L35" s="65">
         <f>L23+L27+L34</f>
-        <v>217.99599999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>269.048</v>
+      </c>
+      <c r="N35" s="42"/>
+      <c r="O35" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="65">
+        <f>P23+P27+P34</f>
+        <v>218.392</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="2:30" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="68"/>
       <c r="C37" s="3" t="s">
         <v>77</v>
@@ -10167,20 +10703,38 @@
       <c r="H37" s="69"/>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="69"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20"/>
       <c r="C40" s="57" t="s">
         <v>78</v>
@@ -10204,11 +10758,14 @@
         <v>125</v>
       </c>
       <c r="J40" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20"/>
       <c r="C41" s="58">
         <v>10240</v>
@@ -10233,12 +10790,15 @@
         <v>166.68199999999999</v>
       </c>
       <c r="J41" s="61">
+        <v>58.035999999999994</v>
+      </c>
+      <c r="K41" s="61">
         <v>27.185600000000001</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="93"/>
-    </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="6"/>
+      <c r="M41" s="90"/>
+    </row>
+    <row r="42" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20"/>
       <c r="C42" s="58">
         <v>10240</v>
@@ -10263,11 +10823,14 @@
         <v>175.988</v>
       </c>
       <c r="J42" s="61">
+        <v>86.584000000000003</v>
+      </c>
+      <c r="K42" s="61">
         <v>90.61760000000001</v>
       </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="20"/>
       <c r="C43" s="58">
         <v>10240</v>
@@ -10292,11 +10855,14 @@
         <v>191.49799999999999</v>
       </c>
       <c r="J43" s="61">
+        <v>134.16399999999999</v>
+      </c>
+      <c r="K43" s="61">
         <v>196.33759999999998</v>
       </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20"/>
       <c r="C44" s="58">
         <v>10240</v>
@@ -10321,11 +10887,14 @@
         <v>217.34800000000001</v>
       </c>
       <c r="J44" s="61">
+        <v>213.464</v>
+      </c>
+      <c r="K44" s="61">
         <v>372.5376</v>
       </c>
-      <c r="K44" s="70"/>
-    </row>
-    <row r="45" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="20"/>
       <c r="C45" s="58">
         <v>10240</v>
@@ -10350,11 +10919,14 @@
         <v>243.19799999999998</v>
       </c>
       <c r="J45" s="61">
+        <v>292.76399999999995</v>
+      </c>
+      <c r="K45" s="61">
         <v>548.73760000000004</v>
       </c>
-      <c r="K45" s="70"/>
-    </row>
-    <row r="46" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="70"/>
+    </row>
+    <row r="46" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20"/>
       <c r="C46" s="58">
         <v>10240</v>
@@ -10379,145 +10951,335 @@
         <v>269.048</v>
       </c>
       <c r="J46" s="61">
+        <v>372.06399999999996</v>
+      </c>
+      <c r="K46" s="61">
         <v>724.93759999999997</v>
       </c>
-      <c r="K46" s="70"/>
-    </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="70"/>
+    </row>
+    <row r="47" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="20"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="20"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="20"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="20"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="20"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="20"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="20"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="20"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="20"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="20"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="20"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="20"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="20"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="20"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="20"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="20"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="2:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="91"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="92"/>
-    </row>
-    <row r="70" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="88"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="89"/>
+    </row>
+    <row r="71" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="11:12" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10540,6 +11302,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classified as Microsoft Confidential</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10565,45 +11330,45 @@
       </c>
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" ht="164" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:17" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="2:17" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="72" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10749,22 +11514,22 @@
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="79">
         <f>C11/10000*C7</f>
         <v>1000</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <f>D13/D6/10000*D7</f>
         <v>50</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="80">
         <f>E13/E6/10000*E7</f>
         <v>5</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="80">
         <f>F13/F6/10000*F7</f>
         <v>0.48828125</v>
       </c>
@@ -10793,19 +11558,19 @@
       <c r="B16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="74">
         <f>C11/10000*C9*C15</f>
         <v>15000</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <f>D13/D6/10000*D9*D15</f>
         <v>750</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="74">
         <f t="shared" ref="E16:F16" si="1">E13/E6/10000*E9*E15</f>
         <v>75</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="74">
         <f t="shared" si="1"/>
         <v>7.32421875</v>
       </c>
@@ -10814,68 +11579,68 @@
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="74">
         <f>C13/1024*C10*C15</f>
         <v>292.96875</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="74">
         <f>D13/1024*D10*D15</f>
         <v>292.96875</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="74">
         <f t="shared" ref="E17:F17" si="2">E13/1024*E10*E15</f>
         <v>292.96875</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="74">
         <f t="shared" si="2"/>
         <v>292.96875</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="82">
         <f>(C11/10000*C9+C13/1024*C10)*C15</f>
         <v>15292.96875</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="82">
         <f>(D13/D6/10000*D9+D13/1024*D10)*D15</f>
         <v>1042.96875</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="82">
         <f>(E13/E6/10000*E9+E13/1024*E10)*E15</f>
         <v>367.96875</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="82">
         <f>(F13/F6/10000*F9+F13/1024*F10)*F15</f>
         <v>300.29296875</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="78">
         <f>(C11/10000*C9+C13/1024*C10)*C15</f>
         <v>15292.96875</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="78">
         <f>D13/D6/10000*D9*D15+D13/1024*D10</f>
         <v>1726.5625</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>E13/E6/10000*E9*E15+E13/1024*E10</f>
         <v>1051.5625</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="78">
         <f>F13/F6/10000*F9*F15+F13/1024*F10</f>
         <v>983.88671875</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="76" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10904,16 +11669,16 @@
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -10938,67 +11703,67 @@
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="84">
         <f>C14+C18+C22</f>
         <v>16292.96875</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="84">
         <f t="shared" ref="D23:F23" si="5">D14+D18+D22</f>
         <v>1132.96875</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <f t="shared" si="5"/>
         <v>412.96875</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="84">
         <f t="shared" si="5"/>
         <v>340.78125</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="87">
         <f>1-D23/$C23</f>
         <v>0.93046271877247666</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="87">
         <f>1-E23/$C23</f>
         <v>0.97465356029729078</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="87">
         <f>1-F23/$C23</f>
         <v>0.97908415248141933</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:7" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="B27" s="74" t="s">
+    <row r="27" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="B27" s="72" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="73" t="s">
         <v>92</v>
       </c>
     </row>
@@ -11144,22 +11909,22 @@
       </c>
     </row>
     <row r="37" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="81">
+      <c r="C37" s="79">
         <f>C34/10000*C30</f>
         <v>1000</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="80">
         <f>D36/D29/10000*D30</f>
         <v>50</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="80">
         <f>E36/E29/10000*E30</f>
         <v>5</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="80">
         <f>F36/F29/10000*F30</f>
         <v>0.48828125</v>
       </c>
@@ -11188,19 +11953,19 @@
       <c r="B39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="74">
         <f>C34/10000*C32*C38</f>
         <v>30</v>
       </c>
-      <c r="D39" s="76">
+      <c r="D39" s="74">
         <f>D36/D29/10000*D32*D38</f>
         <v>1.5</v>
       </c>
-      <c r="E39" s="76">
+      <c r="E39" s="74">
         <f t="shared" ref="E39:F39" si="6">E36/E29/10000*E32*E38</f>
         <v>0.15</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="74">
         <f t="shared" si="6"/>
         <v>1.46484375E-2</v>
       </c>
@@ -11209,44 +11974,44 @@
       <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="74">
         <f>C36/1024*C33*C38</f>
         <v>146.484375</v>
       </c>
-      <c r="D40" s="76">
+      <c r="D40" s="74">
         <f>D36/1024*D33*D38</f>
         <v>146.484375</v>
       </c>
-      <c r="E40" s="76">
+      <c r="E40" s="74">
         <f t="shared" ref="E40:F40" si="7">E36/1024*E33*E38</f>
         <v>146.484375</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="74">
         <f t="shared" si="7"/>
         <v>146.484375</v>
       </c>
     </row>
     <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="82">
         <f>(C34/10000*C32+C36/1024*C33)*C38</f>
         <v>176.484375</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="82">
         <f>(D36/D29/10000*D32+D36/1024*D33)*D38</f>
         <v>147.984375</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="82">
         <f>(E36/E29/10000*E32+E36/1024*E33)*E38</f>
         <v>146.63437500000001</v>
       </c>
-      <c r="F41" s="84">
+      <c r="F41" s="82">
         <f>(F36/F29/10000*F32+F36/1024*F33)*F38</f>
         <v>146.4990234375</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="76" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11275,16 +12040,16 @@
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="77">
+      <c r="C43" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D43" s="77">
+      <c r="D43" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="77">
+      <c r="F43" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -11309,42 +12074,42 @@
       </c>
     </row>
     <row r="45" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="84">
         <f>C37+C41+C44</f>
         <v>1176.484375</v>
       </c>
-      <c r="D45" s="86">
+      <c r="D45" s="84">
         <f t="shared" ref="D45:F45" si="10">D37+D41+D44</f>
         <v>237.984375</v>
       </c>
-      <c r="E45" s="86">
+      <c r="E45" s="84">
         <f t="shared" si="10"/>
         <v>191.63437500000001</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F45" s="84">
         <f t="shared" si="10"/>
         <v>186.9873046875</v>
       </c>
     </row>
     <row r="46" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="89">
+      <c r="D46" s="87">
         <f>1-D45/$C45</f>
         <v>0.79771565176970582</v>
       </c>
-      <c r="E46" s="89">
+      <c r="E46" s="87">
         <f>1-E45/$C45</f>
         <v>0.83711269008566302</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="87">
         <f>1-F45/$C45</f>
         <v>0.84106265356265353</v>
       </c>
@@ -11364,34 +12129,14 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classified as Microsoft Confidential</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="1c88734f-45cf-4ee3-8ac1-e8e10e08d449" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c88734f-45cf-4ee3-8ac1-e8e10e08d449">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8A95AC407529A4B8367EBCC1BDB6E99" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03601cbb5dfa022402bd40f726e5bd77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1c88734f-45cf-4ee3-8ac1-e8e10e08d449" xmlns:ns3="876de33e-aaa5-4507-9b92-b84e676ded0d" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cba5aa92998f26d0ff1a5b887931029" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11668,34 +12413,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2727BBA6-342A-4358-9024-9616B749BB59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="1c88734f-45cf-4ee3-8ac1-e8e10e08d449" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c88734f-45cf-4ee3-8ac1-e8e10e08d449">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE092F8-72EA-4017-80BB-D5538F7FEC66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB0D66B-EF3C-4564-98F4-52D1C0877A16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11716,8 +12457,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2727BBA6-342A-4358-9024-9616B749BB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="876de33e-aaa5-4507-9b92-b84e676ded0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1c88734f-45cf-4ee3-8ac1-e8e10e08d449"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE092F8-72EA-4017-80BB-D5538F7FEC66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{1a19d03a-48bc-4359-8038-5b5f6d5847c3}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>